--- a/WellDirSrvy.xlsx
+++ b/WellDirSrvy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>MD (ft)</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Well-1</t>
+  </si>
+  <si>
+    <t>Well-2</t>
   </si>
 </sst>
 </file>
@@ -95,9 +98,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -380,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +417,13 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -423,10 +435,10 @@
         <v>1000</v>
       </c>
       <c r="C3" s="1">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -437,10 +449,52 @@
         <v>1100</v>
       </c>
       <c r="C4" s="1">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1">
-        <v>57</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>800</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>985</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
